--- a/HolidayCalendarService/Template/Copilot English.xlsx
+++ b/HolidayCalendarService/Template/Copilot English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\holidaycalendarapp\HolidayCalendarService\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CD05D9-E8E7-4281-89F8-EAD56833CA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DF38F-D4CF-4EC3-9CF4-E08663F359E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Prompt like a Pro</t>
   </si>
   <si>
-    <t>Start you Copilot journey</t>
-  </si>
-  <si>
     <t>https://copilot.cloud.microsoft/en-US/prompts</t>
   </si>
   <si>
@@ -249,12 +246,6 @@
     <t>Learn how to reference files and create content</t>
   </si>
   <si>
-    <t>Get to know your AI-assistant during meetings</t>
-  </si>
-  <si>
-    <t>Make Copilot to YOUR Copilot</t>
-  </si>
-  <si>
     <t>Boost your productivity with the comparing feature</t>
   </si>
   <si>
@@ -427,6 +418,15 @@
   </si>
   <si>
     <t>https://wus-streaming-video-rt-microsoft-com.akamaized.net/v1/wus001/09ec7943-6593-451d-aa67-4a9daac0bee5/0743e8bb-9abd-4d44-aa0e-29bb3326f207_6750.mp4</t>
+  </si>
+  <si>
+    <t>Get to know your AI assistant during meetings</t>
+  </si>
+  <si>
+    <t>Make Copilot YOUR Copilot</t>
+  </si>
+  <si>
+    <t>Start your Copilot journey</t>
   </si>
 </sst>
 </file>
@@ -462,11 +462,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +815,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,22 +830,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -854,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -866,47 +865,47 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>129</v>
+      <c r="D4" t="s">
+        <v>126</v>
       </c>
       <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -914,19 +913,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -934,19 +933,19 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -954,19 +953,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -974,19 +973,19 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -994,19 +993,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1014,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -1026,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1034,39 +1033,39 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1074,99 +1073,99 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1174,139 +1173,139 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1314,19 +1313,19 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1397,15 +1396,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001262F956B7C6624B8AD32B2C07A4016A" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74ff8fbec5957ef2b318bb7f92bedf33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b9fca909-5068-4889-a98d-66367aed6236" xmlns:ns3="21f48a0c-0825-4f9a-8098-6cb539880210" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a08b0ffcd451d310925d3135f95e51b0" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1700,6 +1690,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1715,14 +1714,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8694C0A-ADEC-4C43-BEC1-E9BC82895567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1739,6 +1730,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HolidayCalendarService/Template/Copilot English.xlsx
+++ b/HolidayCalendarService/Template/Copilot English.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\holidaycalendarapp\HolidayCalendarService\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DF38F-D4CF-4EC3-9CF4-E08663F359E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729BE5CC-9DC5-4A75-A03C-E661D1084A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -815,20 +815,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="144.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -848,7 +848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -868,7 +868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -888,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -908,7 +908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -928,7 +928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -948,7 +948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -968,7 +968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -988,7 +988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1357,32 +1357,32 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1396,6 +1396,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001262F956B7C6624B8AD32B2C07A4016A" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74ff8fbec5957ef2b318bb7f92bedf33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b9fca909-5068-4889-a98d-66367aed6236" xmlns:ns3="21f48a0c-0825-4f9a-8098-6cb539880210" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a08b0ffcd451d310925d3135f95e51b0" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1690,15 +1699,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1714,6 +1714,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8694C0A-ADEC-4C43-BEC1-E9BC82895567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1730,14 +1738,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
